--- a/output/ADAM_24029438000160.xlsx
+++ b/output/ADAM_24029438000160.xlsx
@@ -1010,10 +1010,10 @@
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.5273675499999999</v>
+        <v>0.5238136</v>
       </c>
       <c r="C57">
-        <v>0.01491693800855431</v>
+        <v>0.0125553819758657</v>
       </c>
     </row>
   </sheetData>

--- a/output/ADAM_24029438000160.xlsx
+++ b/output/ADAM_24029438000160.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ADAM MACRO II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42490</v>
       </c>
@@ -411,609 +405,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42521</v>
       </c>
       <c r="B3">
         <v>0.002796000000000021</v>
       </c>
-      <c r="C3">
-        <v>0.002796000000000021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42551</v>
       </c>
       <c r="B4">
-        <v>0.03234059</v>
-      </c>
-      <c r="C4">
         <v>0.02946221365063284</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42582</v>
       </c>
       <c r="B5">
-        <v>0.06549884000000006</v>
-      </c>
-      <c r="C5">
         <v>0.03211948684493748</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42613</v>
       </c>
       <c r="B6">
-        <v>0.07860518999999999</v>
-      </c>
-      <c r="C6">
         <v>0.01230067036018534</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42643</v>
       </c>
       <c r="B7">
-        <v>0.1032019200000001</v>
-      </c>
-      <c r="C7">
         <v>0.02280420141497741</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42674</v>
       </c>
       <c r="B8">
-        <v>0.1045868599999999</v>
-      </c>
-      <c r="C8">
         <v>0.001255382151619022</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42704</v>
       </c>
       <c r="B9">
-        <v>0.1191633400000001</v>
-      </c>
-      <c r="C9">
         <v>0.01319631848599045</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42735</v>
       </c>
       <c r="B10">
-        <v>0.1647363799999999</v>
-      </c>
-      <c r="C10">
         <v>0.04072063332596287</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42766</v>
       </c>
       <c r="B11">
-        <v>0.21925339</v>
-      </c>
-      <c r="C11">
         <v>0.04680630822229492</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42794</v>
       </c>
       <c r="B12">
-        <v>0.26072527</v>
-      </c>
-      <c r="C12">
         <v>0.03401416009185754</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42825</v>
       </c>
       <c r="B13">
-        <v>0.2815335699999999</v>
-      </c>
-      <c r="C13">
         <v>0.01650502333470305</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42855</v>
       </c>
       <c r="B14">
-        <v>0.27900415</v>
-      </c>
-      <c r="C14">
         <v>-0.001973744628476548</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42886</v>
       </c>
       <c r="B15">
-        <v>0.23400618</v>
-      </c>
-      <c r="C15">
         <v>-0.03518203596133762</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42916</v>
       </c>
       <c r="B16">
-        <v>0.23891011</v>
-      </c>
-      <c r="C16">
         <v>0.003973991443057434</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42947</v>
       </c>
       <c r="B17">
-        <v>0.2700277799999999</v>
-      </c>
-      <c r="C17">
         <v>0.02511697156139925</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42978</v>
       </c>
       <c r="B18">
-        <v>0.2905658200000001</v>
-      </c>
-      <c r="C18">
         <v>0.01617133130741455</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43008</v>
       </c>
       <c r="B19">
-        <v>0.3236313799999999</v>
-      </c>
-      <c r="C19">
         <v>0.02562097917640482</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43039</v>
       </c>
       <c r="B20">
-        <v>0.3359021600000001</v>
-      </c>
-      <c r="C20">
         <v>0.009270541772740559</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43069</v>
       </c>
       <c r="B21">
-        <v>0.33264191</v>
-      </c>
-      <c r="C21">
         <v>-0.002440485611611032</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43100</v>
       </c>
       <c r="B22">
-        <v>0.34142034</v>
-      </c>
-      <c r="C22">
         <v>0.006587238427763431</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
       <c r="B23">
-        <v>0.4199435499999999</v>
-      </c>
-      <c r="C23">
         <v>0.05853736346356575</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43159</v>
       </c>
       <c r="B24">
-        <v>0.4355230000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01097187983282866</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43190</v>
       </c>
       <c r="B25">
-        <v>0.41294513</v>
-      </c>
-      <c r="C25">
         <v>-0.01572797510036417</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43220</v>
       </c>
       <c r="B26">
-        <v>0.43258288</v>
-      </c>
-      <c r="C26">
         <v>0.01389845195191697</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43251</v>
       </c>
       <c r="B27">
-        <v>0.3903741999999999</v>
-      </c>
-      <c r="C27">
         <v>-0.02946334246295068</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43281</v>
       </c>
       <c r="B28">
-        <v>0.35381273</v>
-      </c>
-      <c r="C28">
         <v>-0.02629613668032671</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43312</v>
       </c>
       <c r="B29">
-        <v>0.3671380399999999</v>
-      </c>
-      <c r="C29">
         <v>0.009842801522482292</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43343</v>
       </c>
       <c r="B30">
-        <v>0.3688065</v>
-      </c>
-      <c r="C30">
         <v>0.001220403464159414</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
       <c r="B31">
-        <v>0.3693636899999999</v>
-      </c>
-      <c r="C31">
         <v>0.0004070626491032847</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43404</v>
       </c>
       <c r="B32">
-        <v>0.38812571</v>
-      </c>
-      <c r="C32">
         <v>0.01370126879879519</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43434</v>
       </c>
       <c r="B33">
-        <v>0.3965546499999999</v>
-      </c>
-      <c r="C33">
         <v>0.006072173391270086</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43465</v>
       </c>
       <c r="B34">
-        <v>0.40810258</v>
-      </c>
-      <c r="C34">
         <v>0.008268870824353458</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43496</v>
       </c>
       <c r="B35">
-        <v>0.4217335499999999</v>
-      </c>
-      <c r="C35">
         <v>0.009680381382441539</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43524</v>
       </c>
       <c r="B36">
-        <v>0.42157581</v>
-      </c>
-      <c r="C36">
         <v>-0.0001109490593367291</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43555</v>
       </c>
       <c r="B37">
-        <v>0.4312425499999999</v>
-      </c>
-      <c r="C37">
         <v>0.006800017228768107</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43585</v>
       </c>
       <c r="B38">
-        <v>0.4441863699999999</v>
-      </c>
-      <c r="C38">
         <v>0.009043764105531871</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43616</v>
       </c>
       <c r="B39">
-        <v>0.46746865</v>
-      </c>
-      <c r="C39">
         <v>0.01612138189616075</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43646</v>
       </c>
       <c r="B40">
-        <v>0.4556923100000001</v>
-      </c>
-      <c r="C40">
         <v>-0.00802493463829701</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43677</v>
       </c>
       <c r="B41">
-        <v>0.45548751</v>
-      </c>
-      <c r="C41">
         <v>-0.000140689071854827</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43708</v>
       </c>
       <c r="B42">
-        <v>0.4826657599999999</v>
-      </c>
-      <c r="C42">
         <v>0.01867295309184747</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43738</v>
       </c>
       <c r="B43">
-        <v>0.48068007</v>
-      </c>
-      <c r="C43">
         <v>-0.00133927015351043</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43769</v>
       </c>
       <c r="B44">
-        <v>0.4809846600000001</v>
-      </c>
-      <c r="C44">
         <v>0.000205709529135456</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43799</v>
       </c>
       <c r="B45">
-        <v>0.4780841</v>
-      </c>
-      <c r="C45">
         <v>-0.001958534803459755</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43830</v>
       </c>
       <c r="B46">
-        <v>0.47238286</v>
-      </c>
-      <c r="C46">
         <v>-0.003857182416075022</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43861</v>
       </c>
       <c r="B47">
-        <v>0.4911846600000001</v>
-      </c>
-      <c r="C47">
         <v>0.01276964063545272</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43890</v>
       </c>
       <c r="B48">
-        <v>0.5106072800000001</v>
-      </c>
-      <c r="C48">
         <v>0.0130249596317602</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43921</v>
       </c>
       <c r="B49">
-        <v>0.5262918400000001</v>
-      </c>
-      <c r="C49">
         <v>0.01038295009408396</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>0.52735339</v>
-      </c>
-      <c r="C50">
         <v>0.0006955091891207577</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43982</v>
       </c>
       <c r="B51">
-        <v>0.5354940100000001</v>
-      </c>
-      <c r="C51">
         <v>0.005329886359829228</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44012</v>
       </c>
       <c r="B52">
-        <v>0.5292301500000001</v>
-      </c>
-      <c r="C52">
         <v>-0.004079377685100805</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44043</v>
       </c>
       <c r="B53">
-        <v>0.53804169</v>
-      </c>
-      <c r="C53">
         <v>0.005762075773878772</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44074</v>
       </c>
       <c r="B54">
-        <v>0.5242244300000001</v>
-      </c>
-      <c r="C54">
         <v>-0.008983670657197851</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44104</v>
       </c>
       <c r="B55">
-        <v>0.4990871800000001</v>
-      </c>
-      <c r="C55">
         <v>-0.01649182988098408</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44135</v>
       </c>
       <c r="B56">
-        <v>0.50491877</v>
-      </c>
-      <c r="C56">
         <v>0.0038900939703852</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44165</v>
       </c>
       <c r="B57">
-        <v>0.5238136</v>
-      </c>
-      <c r="C57">
-        <v>0.0125553819758657</v>
+        <v>0.01015310613741627</v>
       </c>
     </row>
   </sheetData>
